--- a/7RmartSuperMarket/src/test/resources/testdata/Testdata.xlsx
+++ b/7RmartSuperMarket/src/test/resources/testdata/Testdata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merin\git\MyTestNG\7RmartSuperMarket\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A5A35E-B51A-4D26-AF86-6EE4E56B9999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E911E84-AE64-46AE-A0E2-D81ADE552FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="290" windowWidth="14400" windowHeight="10080" activeTab="2" xr2:uid="{DFDA1E26-64F0-48A5-8F7D-FADDDAE7DE7E}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="10080" firstSheet="2" activeTab="3" xr2:uid="{DFDA1E26-64F0-48A5-8F7D-FADDDAE7DE7E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminPage" sheetId="2" r:id="rId2"/>
     <sheet name="ManageProductPage" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageNewsPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -81,6 +82,9 @@
   </si>
   <si>
     <t>Pomegranate</t>
+  </si>
+  <si>
+    <t>Paris has recently unveiled its plans for a major eco-friendly urban renovation project aimed at transforming the cityscape and reducing carbon emissions</t>
   </si>
 </sst>
 </file>
@@ -537,9 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9C65E7-A592-4A16-A528-2871820AF595}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -559,4 +561,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814124CB-6C33-46C7-923A-FD6DEE75FE13}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7RmartSuperMarket/src/test/resources/testdata/Testdata.xlsx
+++ b/7RmartSuperMarket/src/test/resources/testdata/Testdata.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merin\git\MyTestNG\7RmartSuperMarket\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E911E84-AE64-46AE-A0E2-D81ADE552FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECFBCF-BD36-4C36-AB25-7CBD67C5F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="10080" firstSheet="2" activeTab="3" xr2:uid="{DFDA1E26-64F0-48A5-8F7D-FADDDAE7DE7E}"/>
+    <workbookView xWindow="5910" yWindow="190" windowWidth="14400" windowHeight="10080" firstSheet="5" activeTab="7" xr2:uid="{DFDA1E26-64F0-48A5-8F7D-FADDDAE7DE7E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminPage" sheetId="2" r:id="rId2"/>
     <sheet name="ManageProductPage" sheetId="3" r:id="rId3"/>
     <sheet name="ManageNewsPage" sheetId="4" r:id="rId4"/>
+    <sheet name="AdminActiveUser" sheetId="5" r:id="rId5"/>
+    <sheet name="ManageCategory" sheetId="6" r:id="rId6"/>
+    <sheet name="ManagePages" sheetId="7" r:id="rId7"/>
+    <sheet name="SubCategory" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>UserName</t>
   </si>
@@ -66,12 +70,6 @@
     <t>newpassword</t>
   </si>
   <si>
-    <t>Meenakshi</t>
-  </si>
-  <si>
-    <t>Meenu@123</t>
-  </si>
-  <si>
     <t>dropdownvisibletext</t>
   </si>
   <si>
@@ -85,13 +83,61 @@
   </si>
   <si>
     <t>Paris has recently unveiled its plans for a major eco-friendly urban renovation project aimed at transforming the cityscape and reducing carbon emissions</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Ganesh@123</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-admin</t>
+  </si>
+  <si>
+    <t>adminurl</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>jaya</t>
+  </si>
+  <si>
+    <t>managecategoryurl</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-category</t>
+  </si>
+  <si>
+    <t>managepageurl</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-page</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-product</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-sub-category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Olives</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-news</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +149,33 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0066CC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -124,14 +197,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,7 +532,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,10 +576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA780DB-54C9-47EC-BD1E-21EF42EA1720}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,7 +589,7 @@
     <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -512,21 +597,27 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
     </row>
   </sheetData>
@@ -539,51 +630,210 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9C65E7-A592-4A16-A528-2871820AF595}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{464D69E9-1B92-4940-B3FB-62D7DCEF8E6E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814124CB-6C33-46C7-923A-FD6DEE75FE13}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="33.08984375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7610DD08-FAEF-4B89-B558-C26FC19FA782}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D903970B-16BF-4AAC-B23C-2ECB69404A2A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="49.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0A8AC6A3-EE39-48E7-9570-60C8143928B2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B417868-F4BE-41DE-AED7-96653C110BB5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="51.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{EB8012E4-2680-45E8-8709-568325837C78}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814124CB-6C33-46C7-923A-FD6DEE75FE13}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C86C4F-FFE7-4931-82DF-D844248F714A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
+      <c r="A2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FD1B2D20-D3D6-4153-84D0-CCFDE49F407E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19A043A-A9E4-4049-B78F-540A04A9E9B0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="55.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{55643A2E-E427-4B6A-B2C0-CBC1C5BCFF58}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7RmartSuperMarket/src/test/resources/testdata/Testdata.xlsx
+++ b/7RmartSuperMarket/src/test/resources/testdata/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merin\git\MyTestNG\7RmartSuperMarket\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECFBCF-BD36-4C36-AB25-7CBD67C5F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E742A767-CE3F-4207-829F-CBFE6910C205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="190" windowWidth="14400" windowHeight="10080" firstSheet="5" activeTab="7" xr2:uid="{DFDA1E26-64F0-48A5-8F7D-FADDDAE7DE7E}"/>
+    <workbookView xWindow="3530" yWindow="0" windowWidth="14400" windowHeight="10080" firstSheet="5" activeTab="7" xr2:uid="{DFDA1E26-64F0-48A5-8F7D-FADDDAE7DE7E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>UserName</t>
   </si>
@@ -131,6 +131,36 @@
   </si>
   <si>
     <t>https://groceryapp.uniqassosiates.com/admin/list-news</t>
+  </si>
+  <si>
+    <t>sucesstext</t>
+  </si>
+  <si>
+    <t>User created successfully</t>
+  </si>
+  <si>
+    <t>successtext</t>
+  </si>
+  <si>
+    <t>User Status Changed Successfully</t>
+  </si>
+  <si>
+    <t>Category Created Successfully</t>
+  </si>
+  <si>
+    <t>sucessalert</t>
+  </si>
+  <si>
+    <t>Category Updated Successfully</t>
+  </si>
+  <si>
+    <t>News Created Successfully</t>
+  </si>
+  <si>
+    <t>Page Deleted Successfully</t>
+  </si>
+  <si>
+    <t>Sub Category Created Successfully</t>
   </si>
 </sst>
 </file>
@@ -203,15 +233,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,49 +610,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA780DB-54C9-47EC-BD1E-21EF42EA1720}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F13" sqref="F11:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="16384" width="19.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C6" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -653,12 +691,12 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -670,31 +708,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814124CB-6C33-46C7-923A-FD6DEE75FE13}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="33.08984375" style="6"/>
+    <col min="1" max="16384" width="33.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -707,10 +751,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D903970B-16BF-4AAC-B23C-2ECB69404A2A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -718,20 +762,26 @@
     <col min="1" max="1" width="49.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -744,25 +794,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B417868-F4BE-41DE-AED7-96653C110BB5}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="51.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -775,22 +840,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C86C4F-FFE7-4931-82DF-D844248F714A}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="26.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +879,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19A043A-A9E4-4049-B78F-540A04A9E9B0}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,20 +890,26 @@
     <col min="1" max="1" width="55.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
